--- a/src/idxconfig/Simulation/Joint Space Locations.xlsx
+++ b/src/idxconfig/Simulation/Joint Space Locations.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Half Values" sheetId="2" r:id="rId2"/>
+    <sheet name="Translation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Joint</t>
   </si>
@@ -55,6 +56,15 @@
   </si>
   <si>
     <t>z (m)</t>
+  </si>
+  <si>
+    <t>Axis of Rotation</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -406,18 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +441,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -444,8 +458,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -458,8 +475,11 @@
       <c r="D3">
         <v>0.38735000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -472,8 +492,11 @@
       <c r="D4">
         <v>0.50800000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -486,8 +509,11 @@
       <c r="D5">
         <v>0.54324249999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -500,8 +526,11 @@
       <c r="D6">
         <v>0.48259999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -513,6 +542,9 @@
       </c>
       <c r="D7">
         <v>0.38735000000000003</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -524,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,4 +703,229 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>A1*0.0254</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:G1" si="0">B1*0.0254</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f>E1/2</f>
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <f t="shared" ref="J1:K1" si="1">F1/2</f>
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-4.5</v>
+      </c>
+      <c r="C2">
+        <v>15.25</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E6" si="2">A2*0.0254</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F6" si="3">B2*0.0254</f>
+        <v>-0.1143</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G6" si="4">C2*0.0254</f>
+        <v>0.38734999999999997</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I6" si="5">E2/2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J6" si="6">F2/2</f>
+        <v>-5.7149999999999999E-2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K6" si="7">G2/2</f>
+        <v>0.19367499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3">
+        <v>4.75</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="3"/>
+        <v>0.1143</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="4"/>
+        <v>0.12064999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="6"/>
+        <v>5.7149999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="7"/>
+        <v>6.0324999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>12.5</v>
+      </c>
+      <c r="C4">
+        <v>1.3875</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.3175</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3.5242499999999996E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="6"/>
+        <v>0.15875</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="7"/>
+        <v>1.7621249999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>11.5</v>
+      </c>
+      <c r="C5">
+        <v>-2.1387499999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.29209999999999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>-5.4324249999999998E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>0.14604999999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>-2.7162124999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4.25</v>
+      </c>
+      <c r="C6">
+        <v>-3.75</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.10794999999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>-9.5250000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>5.3974999999999995E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>-4.7625000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>